--- a/assets/examples/Growth data for morgan.xlsx
+++ b/assets/examples/Growth data for morgan.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PaulHoskisson/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lpritc/Library/Mobile Documents/com~apple~CloudDocs/Strathclyde_Teaching_iCloud/GitHub_Pages/BM214-Workshop-3/assets/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6031EFAB-5378-8042-840B-E435845D8730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{172BC2BB-0CFA-EC43-BD6A-B8C3A0C62B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="980" windowWidth="27640" windowHeight="16020" xr2:uid="{46307928-AFA1-884B-9A26-D02D82D26D93}"/>
+    <workbookView xWindow="7400" yWindow="980" windowWidth="37680" windowHeight="32860" xr2:uid="{46307928-AFA1-884B-9A26-D02D82D26D93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -217,6 +217,1145 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$5:$L$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.28199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.377</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.438</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.54300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.56899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABBD-5E40-A457-5DB7ED6AC113}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1066696736"/>
+        <c:axId val="1485090880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1066696736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1485090880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1485090880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1066696736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88394BD-612A-5432-3273-F404D2E60922}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,15 +1655,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745B780A-A0DE-3D46-A5F7-6538591256B1}">
-  <dimension ref="A3:Y101"/>
+  <dimension ref="A3:AA101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O108" sqref="O108"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="L101" sqref="L5:L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -598,7 +1737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -675,7 +1814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -751,8 +1890,12 @@
       <c r="Y5" s="2">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA5">
+        <f>LOG(M5)</f>
+        <v>-1.0506099933550872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -828,8 +1971,12 @@
       <c r="Y6" s="2">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA6">
+        <f t="shared" ref="AA6:AA69" si="0">LOG(M6)</f>
+        <v>-1.0757207139381184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -905,8 +2052,12 @@
       <c r="Y7" s="2">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>-1.0705810742857071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -982,8 +2133,12 @@
       <c r="Y8" s="2">
         <v>0.107</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>-1.0705810742857071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2.7777777777777776E-2</v>
       </c>
@@ -1059,8 +2214,12 @@
       <c r="Y9" s="2">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>-1.0655015487564323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -1136,8 +2295,12 @@
       <c r="Y10" s="2">
         <v>0.122</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>-1.0655015487564323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -1213,8 +2376,12 @@
       <c r="Y11" s="2">
         <v>0.13400000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>-1.0604807473813815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>4.8611111111111112E-2</v>
       </c>
@@ -1290,8 +2457,12 @@
       <c r="Y12" s="2">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>-1.0555173278498313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1367,8 +2538,12 @@
       <c r="Y13" s="2">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>-1.0555173278498313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>6.25E-2</v>
       </c>
@@ -1444,8 +2619,12 @@
       <c r="Y14" s="2">
         <v>0.188</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>-1.0506099933550872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6.9444444444444434E-2</v>
       </c>
@@ -1521,8 +2700,12 @@
       <c r="Y15" s="2">
         <v>0.219</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>-1.0457574905606752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7.6388888888888895E-2</v>
       </c>
@@ -1598,8 +2781,12 @@
       <c r="Y16" s="2">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>-1.0409586076789064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1675,8 +2862,12 @@
       <c r="Y17" s="2">
         <v>0.25700000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>-1.0362121726544447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9.0277777777777776E-2</v>
       </c>
@@ -1752,8 +2943,12 @@
       <c r="Y18" s="2">
         <v>0.27600000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA18">
+        <f t="shared" si="0"/>
+        <v>-1.0362121726544447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>9.7222222222222224E-2</v>
       </c>
@@ -1829,8 +3024,12 @@
       <c r="Y19" s="2">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA19">
+        <f t="shared" si="0"/>
+        <v>-1.031517051446065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.10416666666666667</v>
       </c>
@@ -1906,8 +3105,12 @@
       <c r="Y20" s="2">
         <v>0.317</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA20">
+        <f t="shared" si="0"/>
+        <v>-1.0268721464003014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.1111111111111111</v>
       </c>
@@ -1983,8 +3186,12 @@
       <c r="Y21" s="2">
         <v>0.32900000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA21">
+        <f t="shared" si="0"/>
+        <v>-1.0268721464003014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.11805555555555557</v>
       </c>
@@ -2060,8 +3267,12 @@
       <c r="Y22" s="2">
         <v>0.33800000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA22">
+        <f t="shared" si="0"/>
+        <v>-1.0222763947111522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0.125</v>
       </c>
@@ -2137,8 +3348,12 @@
       <c r="Y23" s="2">
         <v>0.35099999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA23">
+        <f t="shared" si="0"/>
+        <v>-1.0222763947111522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0.13194444444444445</v>
       </c>
@@ -2214,8 +3429,12 @@
       <c r="Y24" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>-1.0177287669604316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.1388888888888889</v>
       </c>
@@ -2291,8 +3510,12 @@
       <c r="Y25" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>-1.0177287669604316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.14583333333333334</v>
       </c>
@@ -2368,8 +3591,12 @@
       <c r="Y26" s="2">
         <v>0.38100000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>-1.0132282657337552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.15277777777777776</v>
       </c>
@@ -2445,8 +3672,12 @@
       <c r="Y27" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>-1.0132282657337552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.15972222222222224</v>
       </c>
@@ -2522,8 +3753,12 @@
       <c r="Y28" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>-1.0087739243075051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.16666666666666666</v>
       </c>
@@ -2599,8 +3834,12 @@
       <c r="Y29" s="2">
         <v>0.41199999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>-1.0043648054024501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>0.17361111111111113</v>
       </c>
@@ -2676,8 +3915,12 @@
       <c r="Y30" s="2">
         <v>0.41599999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>-1.0043648054024501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0.18055555555555555</v>
       </c>
@@ -2753,8 +3996,12 @@
       <c r="Y31" s="2">
         <v>0.42699999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.1875</v>
       </c>
@@ -2830,8 +4077,12 @@
       <c r="Y32" s="2">
         <v>0.434</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA32">
+        <f t="shared" si="0"/>
+        <v>-0.99567862621735737</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.19444444444444445</v>
       </c>
@@ -2907,8 +4158,12 @@
       <c r="Y33" s="2">
         <v>0.44500000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA33">
+        <f t="shared" si="0"/>
+        <v>-0.99139982823808248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.20138888888888887</v>
       </c>
@@ -2984,8 +4239,12 @@
       <c r="Y34" s="2">
         <v>0.45400000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA34">
+        <f t="shared" si="0"/>
+        <v>-0.98296666070121963</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.20833333333333334</v>
       </c>
@@ -3061,8 +4320,12 @@
       <c r="Y35" s="2">
         <v>0.46200000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA35">
+        <f t="shared" si="0"/>
+        <v>-0.97881070093006195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.21527777777777779</v>
       </c>
@@ -3138,8 +4401,12 @@
       <c r="Y36" s="2">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA36">
+        <f t="shared" si="0"/>
+        <v>-0.96657624451305035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>0.22222222222222221</v>
       </c>
@@ -3215,8 +4482,12 @@
       <c r="Y37" s="2">
         <v>0.47599999999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA37">
+        <f t="shared" si="0"/>
+        <v>-0.95467702121334252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0.22916666666666666</v>
       </c>
@@ -3292,8 +4563,12 @@
       <c r="Y38" s="2">
         <v>0.48199999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA38">
+        <f t="shared" si="0"/>
+        <v>-0.94309514866352739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.23611111111111113</v>
       </c>
@@ -3369,8 +4644,12 @@
       <c r="Y39" s="2">
         <v>0.48399999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA39">
+        <f t="shared" si="0"/>
+        <v>-0.9318141382538383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.24305555555555555</v>
       </c>
@@ -3446,8 +4725,12 @@
       <c r="Y40" s="2">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA40">
+        <f t="shared" si="0"/>
+        <v>-0.92081875395237522</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.25</v>
       </c>
@@ -3523,8 +4806,12 @@
       <c r="Y41" s="2">
         <v>0.49399999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA41">
+        <f t="shared" si="0"/>
+        <v>-0.90657831483776496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.25694444444444448</v>
       </c>
@@ -3600,8 +4887,12 @@
       <c r="Y42" s="2">
         <v>0.497</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA42">
+        <f t="shared" si="0"/>
+        <v>-0.89279003035213167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.2638888888888889</v>
       </c>
@@ -3677,8 +4968,12 @@
       <c r="Y43" s="2">
         <v>0.504</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA43">
+        <f t="shared" si="0"/>
+        <v>-0.87942606879415008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>0.27083333333333331</v>
       </c>
@@ -3754,8 +5049,12 @@
       <c r="Y44" s="2">
         <v>0.50600000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA44">
+        <f t="shared" si="0"/>
+        <v>-0.86646109162978246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0.27777777777777779</v>
       </c>
@@ -3831,8 +5130,12 @@
       <c r="Y45" s="2">
         <v>0.50900000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA45">
+        <f t="shared" si="0"/>
+        <v>-0.85387196432176193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.28472222222222221</v>
       </c>
@@ -3908,8 +5211,12 @@
       <c r="Y46" s="2">
         <v>0.51400000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA46">
+        <f t="shared" si="0"/>
+        <v>-0.84163750790475034</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.29166666666666669</v>
       </c>
@@ -3985,8 +5292,12 @@
       <c r="Y47" s="2">
         <v>0.51700000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA47">
+        <f t="shared" si="0"/>
+        <v>-0.82973828460504262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.2986111111111111</v>
       </c>
@@ -4062,8 +5373,12 @@
       <c r="Y48" s="2">
         <v>0.52200000000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA48">
+        <f t="shared" si="0"/>
+        <v>-0.81815641205522749</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.30555555555555552</v>
       </c>
@@ -4139,8 +5454,12 @@
       <c r="Y49" s="2">
         <v>0.52500000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA49">
+        <f t="shared" si="0"/>
+        <v>-0.80687540164553839</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.3125</v>
       </c>
@@ -4216,8 +5535,12 @@
       <c r="Y50" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA50">
+        <f t="shared" si="0"/>
+        <v>-0.79317412396815024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>0.31944444444444448</v>
       </c>
@@ -4293,8 +5616,12 @@
       <c r="Y51" s="2">
         <v>0.53300000000000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA51">
+        <f t="shared" si="0"/>
+        <v>-0.77989191195994489</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>0.3263888888888889</v>
       </c>
@@ -4370,8 +5697,12 @@
       <c r="Y52" s="2">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA52">
+        <f t="shared" si="0"/>
+        <v>-0.76700388960784616</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -4447,8 +5778,12 @@
       <c r="Y53" s="2">
         <v>0.54100000000000004</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA53">
+        <f t="shared" si="0"/>
+        <v>-0.75696195131370558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>0.34027777777777773</v>
       </c>
@@ -4524,8 +5859,12 @@
       <c r="Y54" s="2">
         <v>0.54600000000000004</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA54">
+        <f t="shared" si="0"/>
+        <v>-0.74232142513081545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>0.34722222222222227</v>
       </c>
@@ -4601,8 +5940,12 @@
       <c r="Y55" s="2">
         <v>0.54800000000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA55">
+        <f t="shared" si="0"/>
+        <v>-0.72815839346350109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -4678,8 +6021,12 @@
       <c r="Y56" s="2">
         <v>0.55100000000000005</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA56">
+        <f t="shared" si="0"/>
+        <v>-0.71444269099222624</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>0.3611111111111111</v>
       </c>
@@ -4755,8 +6102,12 @@
       <c r="Y57" s="2">
         <v>0.55300000000000005</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA57">
+        <f t="shared" si="0"/>
+        <v>-0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>0.36805555555555558</v>
       </c>
@@ -4832,8 +6183,12 @@
       <c r="Y58" s="2">
         <v>0.55700000000000005</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA58">
+        <f t="shared" si="0"/>
+        <v>-0.68193666503723849</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>0.375</v>
       </c>
@@ -4909,8 +6264,12 @@
       <c r="Y59" s="2">
         <v>0.56200000000000006</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA59">
+        <f t="shared" si="0"/>
+        <v>-0.6655462488490691</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>0.38194444444444442</v>
       </c>
@@ -4986,8 +6345,12 @@
       <c r="Y60" s="2">
         <v>0.56399999999999995</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA60">
+        <f t="shared" si="0"/>
+        <v>-0.64781748188863753</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>0.3888888888888889</v>
       </c>
@@ -5063,8 +6426,12 @@
       <c r="Y61" s="2">
         <v>0.56799999999999995</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA61">
+        <f t="shared" si="0"/>
+        <v>-0.62893213772826373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -5140,8 +6507,12 @@
       <c r="Y62" s="2">
         <v>0.57299999999999995</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA62">
+        <f t="shared" si="0"/>
+        <v>-0.61439372640168788</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>0.40277777777777773</v>
       </c>
@@ -5217,8 +6588,12 @@
       <c r="Y63" s="2">
         <v>0.57599999999999996</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA63">
+        <f t="shared" si="0"/>
+        <v>-0.59516628338006194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>0.40972222222222227</v>
       </c>
@@ -5294,8 +6669,12 @@
       <c r="Y64" s="2">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA64">
+        <f t="shared" si="0"/>
+        <v>-0.5767541260631921</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -5371,8 +6750,12 @@
       <c r="Y65" s="2">
         <v>0.58399999999999996</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA65">
+        <f t="shared" si="0"/>
+        <v>-0.56066730616973737</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>0.4236111111111111</v>
       </c>
@@ -5448,8 +6831,12 @@
       <c r="Y66" s="2">
         <v>0.58599999999999997</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA66">
+        <f t="shared" si="0"/>
+        <v>-0.54211810326600773</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>0.43055555555555558</v>
       </c>
@@ -5525,8 +6912,12 @@
       <c r="Y67" s="2">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA67">
+        <f t="shared" si="0"/>
+        <v>-0.52578373592374483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>0.4375</v>
       </c>
@@ -5602,8 +6993,12 @@
       <c r="Y68" s="2">
         <v>0.59499999999999997</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA68">
+        <f t="shared" si="0"/>
+        <v>-0.50863830616572736</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>0.44444444444444442</v>
       </c>
@@ -5679,8 +7074,12 @@
       <c r="Y69" s="2">
         <v>0.59599999999999997</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA69">
+        <f t="shared" si="0"/>
+        <v>-0.4934949675951279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>0.4513888888888889</v>
       </c>
@@ -5756,8 +7155,12 @@
       <c r="Y70" s="2">
         <v>0.59899999999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA70">
+        <f t="shared" ref="AA70:AA101" si="1">LOG(M70)</f>
+        <v>-0.4788619162959637</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>0.45833333333333331</v>
       </c>
@@ -5833,8 +7236,12 @@
       <c r="Y71" s="2">
         <v>0.60399999999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA71">
+        <f t="shared" si="1"/>
+        <v>-0.46344155742846993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>0.46527777777777773</v>
       </c>
@@ -5910,8 +7317,12 @@
       <c r="Y72" s="2">
         <v>0.60799999999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA72">
+        <f t="shared" si="1"/>
+        <v>-0.44733178388780681</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>0.47222222222222227</v>
       </c>
@@ -5987,8 +7398,12 @@
       <c r="Y73" s="2">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA73">
+        <f t="shared" si="1"/>
+        <v>-0.43415218132648237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -6064,8 +7479,12 @@
       <c r="Y74" s="2">
         <v>0.61299999999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA74">
+        <f t="shared" si="1"/>
+        <v>-0.41907502432438071</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>0.4861111111111111</v>
       </c>
@@ -6141,8 +7560,12 @@
       <c r="Y75" s="2">
         <v>0.61699999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA75">
+        <f t="shared" si="1"/>
+        <v>-0.40671393297954272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>0.49305555555555558</v>
       </c>
@@ -6218,8 +7641,12 @@
       <c r="Y76" s="2">
         <v>0.61899999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA76">
+        <f t="shared" si="1"/>
+        <v>-0.39361863488939502</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>0.5</v>
       </c>
@@ -6295,8 +7722,12 @@
       <c r="Y77" s="2">
         <v>0.623</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA77">
+        <f t="shared" si="1"/>
+        <v>-0.38195190328790729</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>0.50694444444444442</v>
       </c>
@@ -6372,8 +7803,12 @@
       <c r="Y78" s="2">
         <v>0.626</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA78">
+        <f t="shared" si="1"/>
+        <v>-0.36957212497497616</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>0.51388888888888895</v>
       </c>
@@ -6449,8 +7884,12 @@
       <c r="Y79" s="2">
         <v>0.63100000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA79">
+        <f t="shared" si="1"/>
+        <v>-0.35852588949590047</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -6526,8 +7965,12 @@
       <c r="Y80" s="2">
         <v>0.63600000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA80">
+        <f t="shared" si="1"/>
+        <v>-0.34969247686806354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>0.52777777777777779</v>
       </c>
@@ -6603,8 +8046,12 @@
       <c r="Y81" s="2">
         <v>0.63700000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA81">
+        <f t="shared" si="1"/>
+        <v>-0.33913452199613081</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>0.53472222222222221</v>
       </c>
@@ -6680,8 +8127,12 @@
       <c r="Y82" s="2">
         <v>0.64200000000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA82">
+        <f t="shared" si="1"/>
+        <v>-0.32975414692587596</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -6757,8 +8208,12 @@
       <c r="Y83" s="2">
         <v>0.64600000000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA83">
+        <f t="shared" si="1"/>
+        <v>-0.31966448658543678</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>0.54861111111111105</v>
       </c>
@@ -6834,8 +8289,12 @@
       <c r="Y84" s="2">
         <v>0.64900000000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA84">
+        <f t="shared" si="1"/>
+        <v>-0.31425826139773638</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>0.55555555555555558</v>
       </c>
@@ -6911,8 +8370,12 @@
       <c r="Y85" s="2">
         <v>0.65200000000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA85">
+        <f t="shared" si="1"/>
+        <v>-0.30715308072276998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>0.5625</v>
       </c>
@@ -6988,8 +8451,12 @@
       <c r="Y86" s="2">
         <v>0.65400000000000003</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA86">
+        <f t="shared" si="1"/>
+        <v>-0.29670862188133862</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>0.56944444444444442</v>
       </c>
@@ -7065,8 +8532,12 @@
       <c r="Y87" s="2">
         <v>0.65900000000000003</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA87">
+        <f t="shared" si="1"/>
+        <v>-0.29073003902416922</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>0.57638888888888895</v>
       </c>
@@ -7142,8 +8613,12 @@
       <c r="Y88" s="2">
         <v>0.66100000000000003</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA88">
+        <f t="shared" si="1"/>
+        <v>-0.28399665636520083</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>0.58333333333333337</v>
       </c>
@@ -7219,8 +8694,12 @@
       <c r="Y89" s="2">
         <v>0.66600000000000004</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA89">
+        <f t="shared" si="1"/>
+        <v>-0.27654432796481421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>0.59027777777777779</v>
       </c>
@@ -7296,8 +8775,12 @@
       <c r="Y90" s="2">
         <v>0.66800000000000004</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA90">
+        <f t="shared" si="1"/>
+        <v>-0.27164621797877153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>0.59722222222222221</v>
       </c>
@@ -7373,8 +8856,12 @@
       <c r="Y91" s="2">
         <v>0.67100000000000004</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA91">
+        <f t="shared" si="1"/>
+        <v>-0.26600071346161303</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -7450,8 +8937,12 @@
       <c r="Y92" s="2">
         <v>0.67400000000000004</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA92">
+        <f t="shared" si="1"/>
+        <v>-0.26121944151563081</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>0.61111111111111105</v>
       </c>
@@ -7527,8 +9018,12 @@
       <c r="Y93" s="2">
         <v>0.67600000000000005</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA93">
+        <f t="shared" si="1"/>
+        <v>-0.25727486869530169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>0.61805555555555558</v>
       </c>
@@ -7604,8 +9099,12 @@
       <c r="Y94" s="2">
         <v>0.67900000000000005</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA94">
+        <f t="shared" si="1"/>
+        <v>-0.25414480482627105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>0.625</v>
       </c>
@@ -7681,8 +9180,12 @@
       <c r="Y95" s="2">
         <v>0.68300000000000005</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA95">
+        <f t="shared" si="1"/>
+        <v>-0.25258819211357664</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>0.63194444444444442</v>
       </c>
@@ -7758,8 +9261,12 @@
       <c r="Y96" s="2">
         <v>0.68600000000000005</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA96">
+        <f t="shared" si="1"/>
+        <v>-0.25258819211357664</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>0.63888888888888895</v>
       </c>
@@ -7835,8 +9342,12 @@
       <c r="Y97" s="2">
         <v>0.68500000000000005</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA97">
+        <f t="shared" si="1"/>
+        <v>-0.25258819211357664</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>0.64583333333333337</v>
       </c>
@@ -7912,8 +9423,12 @@
       <c r="Y98" s="2">
         <v>0.69299999999999995</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA98">
+        <f t="shared" si="1"/>
+        <v>-0.25258819211357664</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>0.65277777777777779</v>
       </c>
@@ -7989,8 +9504,12 @@
       <c r="Y99" s="2">
         <v>0.69399999999999995</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA99">
+        <f t="shared" si="1"/>
+        <v>-0.25336580106242124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>0.65972222222222221</v>
       </c>
@@ -8066,8 +9585,12 @@
       <c r="Y100" s="2">
         <v>0.69599999999999995</v>
       </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA100">
+        <f t="shared" si="1"/>
+        <v>-0.25258819211357664</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>0.66666666666666663</v>
       </c>
@@ -8143,8 +9666,13 @@
       <c r="Y101" s="2">
         <v>0.69899999999999995</v>
       </c>
+      <c r="AA101">
+        <f t="shared" si="1"/>
+        <v>-0.25258819211357664</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>